--- a/総合テスト/注文機能/ST-O-011_結果.xlsx
+++ b/総合テスト/注文機能/ST-O-011_結果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryotaro.toki\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryotaro.toki\Documents\AVANT\研修\workspace\Popcorn\総合テスト\注文機能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BD61418-CE03-49B8-987B-3D66B058E9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C216792-C4D8-45C3-846F-9E689D16D28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4BC7772F-6E0E-42C7-B56F-5385516317EF}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{4BC7772F-6E0E-42C7-B56F-5385516317EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,23 +101,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>41303</xdr:rowOff>
+      <xdr:rowOff>168404</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E57C32-1095-4CA0-0355-44DD2F7C994E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E42104D-9B25-C258-F085-9335ECFDB405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -126,7 +126,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -139,8 +139,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="0"/>
-          <a:ext cx="7772400" cy="4156103"/>
+          <a:off x="520700" y="222250"/>
+          <a:ext cx="7772400" cy="4060954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
